--- a/output/table3.xlsx
+++ b/output/table3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="312" windowWidth="22692" windowHeight="9276"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
   </bookViews>
   <sheets>
     <sheet name="table3" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>3 mo to 6 mo, n = 16,809</t>
   </si>
   <si>
-    <t>6 mo to 1 y, n = 18,894</t>
-  </si>
-  <si>
-    <t>1 y to 2 y, n =  5,421</t>
+    <t>&gt; 6 mo to 1 y, n = 18,894</t>
+  </si>
+  <si>
+    <t>&gt; 1 y to 2 y, n =  5,421</t>
   </si>
   <si>
     <t>&gt; 2 y, n =  4,608</t>
@@ -31,40 +31,40 @@
     <t>Overweight/obese</t>
   </si>
   <si>
+    <t>Outcome events, n</t>
+  </si>
+  <si>
     <t>Total years of observation</t>
   </si>
   <si>
-    <t>Crude outcome events, n (%)</t>
-  </si>
-  <si>
-    <t>6,103 (36.3)</t>
-  </si>
-  <si>
-    <t>7,114 (37.7)</t>
-  </si>
-  <si>
-    <t>2,249 (41.5)</t>
-  </si>
-  <si>
-    <t>2,386 (51.8)</t>
-  </si>
-  <si>
-    <t>Crude outcome incidence rates per 1,000 years of observation</t>
+    <t>Crude incidence rates per 1,000 years of observation</t>
+  </si>
+  <si>
+    <t>Crude incidence rate ratio (95% CI)</t>
+  </si>
+  <si>
+    <t>0.95 (0.89, 1.01)</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>1.16 (1.08, 1.24)</t>
+  </si>
+  <si>
+    <t>1.43 (1.34, 1.53)</t>
   </si>
   <si>
     <t>Obese</t>
   </si>
   <si>
-    <t>614 (3.7)</t>
-  </si>
-  <si>
-    <t>771 (4.1)</t>
-  </si>
-  <si>
-    <t>265 (4.9)</t>
-  </si>
-  <si>
-    <t>270 (5.9)</t>
+    <t>0.89 (0.73, 1.09)</t>
+  </si>
+  <si>
+    <t>1.20 (0.98, 1.47)</t>
+  </si>
+  <si>
+    <t>1.29 (1.05, 1.57)</t>
   </si>
 </sst>
 </file>
@@ -549,14 +549,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -893,158 +892,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>35678</v>
-      </c>
-      <c r="C3" s="1">
-        <v>39371</v>
-      </c>
-      <c r="D3" s="1">
-        <v>10773</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9217</v>
+      <c r="B3" s="2">
+        <v>6103</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7114</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2249</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2386</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
+      <c r="B4" s="2">
+        <v>35678</v>
+      </c>
+      <c r="C4" s="2">
+        <v>39371</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10773</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9217</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
         <v>171.1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>180.7</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>208.8</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>258.89999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>47922</v>
-      </c>
-      <c r="C7" s="1">
-        <v>53848</v>
-      </c>
-      <c r="D7" s="1">
-        <v>15415</v>
-      </c>
-      <c r="E7" s="1">
-        <v>14654</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>614</v>
+      </c>
+      <c r="C8" s="1">
+        <v>771</v>
+      </c>
+      <c r="D8" s="1">
+        <v>265</v>
+      </c>
+      <c r="E8" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>47922</v>
+      </c>
+      <c r="C9" s="2">
+        <v>53848</v>
+      </c>
+      <c r="D9" s="2">
+        <v>15415</v>
+      </c>
+      <c r="E9" s="2">
+        <v>14654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
         <v>12.8</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="1">
         <v>14.3</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="1">
         <v>17.2</v>
       </c>
-      <c r="E9">
+      <c r="E10" s="1">
         <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A6:E6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>